--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/70.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/70.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2164178397261982</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.577689619751401</v>
+        <v>-1.558232382383442</v>
       </c>
       <c r="F2" t="n">
-        <v>0.007918217329863336</v>
+        <v>0.006712518682947009</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1703898167693212</v>
+        <v>-0.1516007505183549</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2197401477234343</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.593647812612708</v>
+        <v>-1.569097836377781</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01497926710801822</v>
+        <v>0.01642579068049355</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1379083581821602</v>
+        <v>-0.115481733741868</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2319328882221356</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.657327117193609</v>
+        <v>-1.638579762449357</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.04078980437878645</v>
+        <v>-0.04250076316364029</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1463954692842135</v>
+        <v>-0.1226246325143305</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2462066327825926</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.785072148049691</v>
+        <v>-1.774290117068781</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.07625402920081224</v>
+        <v>-0.08846841758210558</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1558631942988371</v>
+        <v>-0.1289836697643853</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2550818496860944</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.797266861191968</v>
+        <v>-1.81091990305013</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.08913107963217318</v>
+        <v>-0.111414468332427</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1519737930501031</v>
+        <v>-0.1264164445775439</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2533419228446447</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.621140417594906</v>
+        <v>-1.634248848837098</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.05992987689380281</v>
+        <v>-0.1034404874639177</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1414247168991459</v>
+        <v>-0.1207641419129531</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2390633518280244</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.330851154139466</v>
+        <v>-1.323716912472171</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.06575846969997926</v>
+        <v>-0.1169188131996155</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1116505712006221</v>
+        <v>-0.08167337703545051</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2128748921106158</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.8677983389396234</v>
+        <v>-0.8318626953907681</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01235222919456737</v>
+        <v>-0.04894794548448791</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1043329563056952</v>
+        <v>-0.0848465995839927</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1756957257430957</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.3706475475150438</v>
+        <v>-0.3094638502509647</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0268284830531698</v>
+        <v>-0.04418024156606813</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.04439273414744372</v>
+        <v>-0.01638935996038319</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1284862814049973</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1673159857057414</v>
+        <v>0.2501440199068262</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.008333530097566266</v>
+        <v>-0.07834747463214216</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02719995156579676</v>
+        <v>0.05871181437423653</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.07154151231556238</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7870403681633695</v>
+        <v>0.8918936519288148</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.05018512451383025</v>
+        <v>-0.1375164274209563</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1091103326191633</v>
+        <v>0.1336398466055132</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.005597519156080805</v>
       </c>
       <c r="E13" t="n">
-        <v>1.423773601245773</v>
+        <v>1.555904636383359</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.194489623535556</v>
+        <v>-0.2916286395875067</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2098019098278895</v>
+        <v>0.2361478418802205</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.0677335788597451</v>
       </c>
       <c r="E14" t="n">
-        <v>2.070807215457968</v>
+        <v>2.213336220910866</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.4269816918663954</v>
+        <v>-0.5298123610609693</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3201075958295205</v>
+        <v>0.3459372496100647</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.1475375561795526</v>
       </c>
       <c r="E15" t="n">
-        <v>2.750171182421679</v>
+        <v>2.906373691981317</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.7137301993084695</v>
+        <v>-0.8222194672441194</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4537292270749784</v>
+        <v>0.485156092850868</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.2323028926473693</v>
       </c>
       <c r="E16" t="n">
-        <v>3.413933471855058</v>
+        <v>3.579310938872757</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.9502855980009466</v>
+        <v>-1.058595427756768</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6121133271367388</v>
+        <v>0.6470124790942177</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.3200457739612986</v>
       </c>
       <c r="E17" t="n">
-        <v>4.053512531508773</v>
+        <v>4.233829014006737</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.214445357033235</v>
+        <v>-1.338070392839312</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7819295280765062</v>
+        <v>0.8188103701077025</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.4090228838694495</v>
       </c>
       <c r="E18" t="n">
-        <v>4.678336735919415</v>
+        <v>4.880942903194118</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.43470965782025</v>
+        <v>-1.554610564385329</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9361172931608789</v>
+        <v>0.9769961437601791</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.4973532129832978</v>
       </c>
       <c r="E19" t="n">
-        <v>5.165434267216247</v>
+        <v>5.367097597037291</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.647447786178765</v>
+        <v>-1.774192527883261</v>
       </c>
       <c r="G19" t="n">
-        <v>1.104148556417091</v>
+        <v>1.143439221722999</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.5822370577568068</v>
       </c>
       <c r="E20" t="n">
-        <v>5.568757778820093</v>
+        <v>5.785028006086807</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.804632483670095</v>
+        <v>-1.924849768078556</v>
       </c>
       <c r="G20" t="n">
-        <v>1.232416948631006</v>
+        <v>1.270816719114257</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.660008779898808</v>
       </c>
       <c r="E21" t="n">
-        <v>5.878808065333902</v>
+        <v>6.084179784204731</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.01340093580469</v>
+        <v>-2.12789272565942</v>
       </c>
       <c r="G21" t="n">
-        <v>1.354924430860959</v>
+        <v>1.388520294986001</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.7287007017302004</v>
       </c>
       <c r="E22" t="n">
-        <v>6.198135620548658</v>
+        <v>6.409578331170343</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.135706156577557</v>
+        <v>-2.232935678728982</v>
       </c>
       <c r="G22" t="n">
-        <v>1.456569863657194</v>
+        <v>1.486559649975336</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.7864136303222784</v>
       </c>
       <c r="E23" t="n">
-        <v>6.334806126832076</v>
+        <v>6.534805718441905</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.239899139321616</v>
+        <v>-2.323861254299598</v>
       </c>
       <c r="G23" t="n">
-        <v>1.56211414181689</v>
+        <v>1.589187270703262</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.8315448254554946</v>
       </c>
       <c r="E24" t="n">
-        <v>6.486053624197859</v>
+        <v>6.678030440346419</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.313055613031869</v>
+        <v>-2.384005311934058</v>
       </c>
       <c r="G24" t="n">
-        <v>1.572741918923912</v>
+        <v>1.591806438521106</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.8635636895571206</v>
       </c>
       <c r="E25" t="n">
-        <v>6.564660139115615</v>
+        <v>6.754735540165643</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.321852805900819</v>
+        <v>-2.388467656142946</v>
       </c>
       <c r="G25" t="n">
-        <v>1.624054942278315</v>
+        <v>1.637712706193841</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.8828459999310972</v>
       </c>
       <c r="E26" t="n">
-        <v>6.590271004238298</v>
+        <v>6.76452121704277</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.331179656204086</v>
+        <v>-2.400950414784421</v>
       </c>
       <c r="G26" t="n">
-        <v>1.676657087293063</v>
+        <v>1.676842821549376</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.8903738514720435</v>
       </c>
       <c r="E27" t="n">
-        <v>6.546437719748317</v>
+        <v>6.708314568240244</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.270010125112099</v>
+        <v>-2.318394685891321</v>
       </c>
       <c r="G27" t="n">
-        <v>1.634075148004515</v>
+        <v>1.631899853578878</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.8872320233131873</v>
       </c>
       <c r="E28" t="n">
-        <v>6.454766846123765</v>
+        <v>6.599442813658118</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.236525229335109</v>
+        <v>-2.266282060823298</v>
       </c>
       <c r="G28" t="n">
-        <v>1.602715965050842</v>
+        <v>1.589464298068611</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.8754556757130424</v>
       </c>
       <c r="E29" t="n">
-        <v>6.327038342468456</v>
+        <v>6.456750110216603</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.155992902022441</v>
+        <v>-2.181377108391657</v>
       </c>
       <c r="G29" t="n">
-        <v>1.562462000042698</v>
+        <v>1.543981441539506</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.8560739078416501</v>
       </c>
       <c r="E30" t="n">
-        <v>6.175716866203972</v>
+        <v>6.292239927734741</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.126546152301148</v>
+        <v>-2.141459983475472</v>
       </c>
       <c r="G30" t="n">
-        <v>1.491500495997099</v>
+        <v>1.473989533272629</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.830209512613338</v>
       </c>
       <c r="E31" t="n">
-        <v>5.930731808107369</v>
+        <v>6.027077518522185</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.991910065732011</v>
+        <v>-1.977739958592502</v>
       </c>
       <c r="G31" t="n">
-        <v>1.414870949095696</v>
+        <v>1.394828963624174</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.799791192287061</v>
       </c>
       <c r="E32" t="n">
-        <v>5.703352153882514</v>
+        <v>5.783682219738095</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.887268487538381</v>
+        <v>-1.861695398874608</v>
       </c>
       <c r="G32" t="n">
-        <v>1.352251746392991</v>
+        <v>1.320612388035726</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.7661309640272522</v>
       </c>
       <c r="E33" t="n">
-        <v>5.384150520197463</v>
+        <v>5.443325769062763</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.833356758614711</v>
+        <v>-1.801240472463692</v>
       </c>
       <c r="G33" t="n">
-        <v>1.28036786714231</v>
+        <v>1.245001231505805</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.7302777410669484</v>
       </c>
       <c r="E34" t="n">
-        <v>5.111871970537506</v>
+        <v>5.154803342070982</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.752998360414947</v>
+        <v>-1.72008640759811</v>
       </c>
       <c r="G34" t="n">
-        <v>1.173200775268552</v>
+        <v>1.132696541220122</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.6936771147459183</v>
       </c>
       <c r="E35" t="n">
-        <v>4.745995947848525</v>
+        <v>4.763812270282528</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.710016620269589</v>
+        <v>-1.673923574808603</v>
       </c>
       <c r="G35" t="n">
-        <v>1.095790514882985</v>
+        <v>1.058949023329821</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.6574670051094441</v>
       </c>
       <c r="E36" t="n">
-        <v>4.306819428699693</v>
+        <v>4.308432798299026</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.64801049801463</v>
+        <v>-1.602081407064637</v>
       </c>
       <c r="G36" t="n">
-        <v>1.037584861796407</v>
+        <v>0.9969877606198191</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.6222950174708778</v>
       </c>
       <c r="E37" t="n">
-        <v>3.965145524019831</v>
+        <v>3.951232769006654</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.612684786875279</v>
+        <v>-1.567766216201161</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9552132931404989</v>
+        <v>0.9162106733337891</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.588938120325926</v>
       </c>
       <c r="E38" t="n">
-        <v>3.643938589974242</v>
+        <v>3.619004553073718</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.526116883241984</v>
+        <v>-1.477820467533554</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8676207030592369</v>
+        <v>0.8255566160615974</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.5578412059014692</v>
       </c>
       <c r="E39" t="n">
-        <v>3.244642993301805</v>
+        <v>3.201491259091346</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.502567196158644</v>
+        <v>-1.454421886285859</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7952866543398638</v>
+        <v>0.7581146187712268</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.5289524201077518</v>
       </c>
       <c r="E40" t="n">
-        <v>2.864714127897851</v>
+        <v>2.802551390740323</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.49394708044084</v>
+        <v>-1.451248663737317</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7282869564225787</v>
+        <v>0.6883462212195738</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.5013944474787978</v>
       </c>
       <c r="E41" t="n">
-        <v>2.520586327407882</v>
+        <v>2.452776009643127</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.46732412102316</v>
+        <v>-1.421708259878306</v>
       </c>
       <c r="G41" t="n">
-        <v>0.67817648367685</v>
+        <v>0.6370678262858399</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.4752203300949907</v>
       </c>
       <c r="E42" t="n">
-        <v>2.160556211735412</v>
+        <v>2.082425050592288</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.433416601112101</v>
+        <v>-1.39125413791938</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6101820056749029</v>
+        <v>0.5711069809886133</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4497341156308907</v>
       </c>
       <c r="E43" t="n">
-        <v>1.912152384107344</v>
+        <v>1.839467329123921</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.399741249021433</v>
+        <v>-1.364416324891643</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5360047805644866</v>
+        <v>0.4966369883216352</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.4241820595582579</v>
       </c>
       <c r="E44" t="n">
-        <v>1.677957227087257</v>
+        <v>1.615703196820693</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.397180319911077</v>
+        <v>-1.363714312363543</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4605683401570299</v>
+        <v>0.424480803762969</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.398614369442558</v>
       </c>
       <c r="E45" t="n">
-        <v>1.45880339679032</v>
+        <v>1.39637307638217</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.327036518798994</v>
+        <v>-1.293102240562872</v>
       </c>
       <c r="G45" t="n">
-        <v>0.409200226133382</v>
+        <v>0.3705202802465389</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.3730946479951477</v>
       </c>
       <c r="E46" t="n">
-        <v>1.235982101940752</v>
+        <v>1.173183461058218</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.262582796810413</v>
+        <v>-1.230674281183405</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3598594487379693</v>
+        <v>0.3286403534860915</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.3477074849393031</v>
       </c>
       <c r="E47" t="n">
-        <v>1.104362623017588</v>
+        <v>1.045275519223082</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.216468758613667</v>
+        <v>-1.18243216913466</v>
       </c>
       <c r="G47" t="n">
-        <v>0.289592087124864</v>
+        <v>0.2552690261657812</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.3225916844806139</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9137945539825926</v>
+        <v>0.8669926694298379</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.14104491035918</v>
+        <v>-1.107501775874702</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2172564643863696</v>
+        <v>0.1893506793848297</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.2984157437947418</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7540032808263893</v>
+        <v>0.7053582198825916</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.075102953291409</v>
+        <v>-1.043569841224832</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1735790077893968</v>
+        <v>0.14398272625158</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.2760605002175205</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6698373303721989</v>
+        <v>0.6241781837015086</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.008472362858069</v>
+        <v>-0.9830251957240009</v>
       </c>
       <c r="G50" t="n">
-        <v>0.145909325656052</v>
+        <v>0.122122748694956</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.2559666309328509</v>
       </c>
       <c r="E51" t="n">
-        <v>0.5458911946653763</v>
+        <v>0.5033249955680418</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.9848880473540603</v>
+        <v>-0.9629265455641124</v>
       </c>
       <c r="G51" t="n">
-        <v>0.121818963004545</v>
+        <v>0.1070452195320167</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.2389864893498321</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3819287708377263</v>
+        <v>0.3490412153172697</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9702339293347508</v>
+        <v>-0.9569665221613074</v>
       </c>
       <c r="G52" t="n">
-        <v>0.07222949058796684</v>
+        <v>0.0533743155339059</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.225694712344228</v>
       </c>
       <c r="E53" t="n">
-        <v>0.3267830109229567</v>
+        <v>0.2890459024897727</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9604624186297163</v>
+        <v>-0.9368104203034914</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0654911147296786</v>
+        <v>0.05550868546238963</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.2160885941809914</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1905548040126247</v>
+        <v>0.1683233579433738</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.9140768621345456</v>
+        <v>-0.8983626422370402</v>
       </c>
       <c r="G54" t="n">
-        <v>0.02441865977845845</v>
+        <v>0.01486436371216327</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.2099766928725744</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1087971028140244</v>
+        <v>0.1050808436686335</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.9141028334500471</v>
+        <v>-0.9064224071476603</v>
       </c>
       <c r="G55" t="n">
-        <v>0.009659082478021896</v>
+        <v>0.002758582650239681</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.2072378179602448</v>
       </c>
       <c r="E56" t="n">
-        <v>0.02438245733866853</v>
+        <v>0.02354980122350047</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.9142523652665706</v>
+        <v>-0.9133756366160062</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.0255721875140514</v>
+        <v>-0.03319988417587453</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.2071121918065732</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.0784497858750267</v>
+        <v>-0.07618949441683892</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.9337560361986075</v>
+        <v>-0.9391643658993966</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.06594577797541404</v>
+        <v>-0.07286988809001577</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.2083832711331052</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.1258608158277247</v>
+        <v>-0.117941925628461</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.9258623303052845</v>
+        <v>-0.9358408245247702</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.09411599818933244</v>
+        <v>-0.09980607731283443</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.2099782315222294</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.2049348144245074</v>
+        <v>-0.1948721101820321</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.938899930687018</v>
+        <v>-0.9459515363504452</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.114984343699537</v>
+        <v>-0.115979123784199</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.2108541192706129</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.2930562749305264</v>
+        <v>-0.2775836669681406</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.959008811971195</v>
+        <v>-0.9770982267227432</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1277496387732855</v>
+        <v>-0.1260260878354613</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.2099862150317415</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.3805796081704511</v>
+        <v>-0.358954159462901</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.9412869306844706</v>
+        <v>-0.9588773813745665</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1626582348454922</v>
+        <v>-0.1637631962686453</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.2064870009244792</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.4995675836451766</v>
+        <v>-0.4813026657616034</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.9612895656779598</v>
+        <v>-0.9892299791001682</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1843277560884388</v>
+        <v>-0.1839641576714183</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.1999900275965718</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.549111409507237</v>
+        <v>-0.5285484237065649</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.9752857437045654</v>
+        <v>-1.010106194705979</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2144513340318913</v>
+        <v>-0.2178039947602618</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.1905111581358138</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.689244757857516</v>
+        <v>-0.6727159830647375</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.010079436380917</v>
+        <v>-1.048826278080416</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2595485558762773</v>
+        <v>-0.2653047438028739</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.1786641589097682</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8467340280488169</v>
+        <v>-0.8377589710191604</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.063796773943106</v>
+        <v>-1.111462007983894</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3169892356699033</v>
+        <v>-0.3259060539920717</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.1655078446991474</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9512292224641664</v>
+        <v>-0.9460207931917824</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.090129326832906</v>
+        <v>-1.138295885963829</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3525951222128462</v>
+        <v>-0.3614316655598283</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.1526835901187287</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.022501595286222</v>
+        <v>-1.030332340414693</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.141344761001788</v>
+        <v>-1.194734702586747</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.399648849825009</v>
+        <v>-0.4141927865058273</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.1421530327207327</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.101166348911467</v>
+        <v>-1.124047077868254</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.187479261447111</v>
+        <v>-1.252901005195292</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4318611511424275</v>
+        <v>-0.4431437202039109</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.1356580102133038</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.231381015768869</v>
+        <v>-1.277084234974956</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.240382831123588</v>
+        <v>-1.308179769725812</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.46054450158989</v>
+        <v>-0.475149825016439</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.1347377282704747</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.279840342456354</v>
+        <v>-1.332241013023575</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.313082839288664</v>
+        <v>-1.390401019555635</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4894608068673049</v>
+        <v>-0.5107132130431068</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.1407276581915146</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.326229833999327</v>
+        <v>-1.389253559616207</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.336075323603063</v>
+        <v>-1.421092818401877</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.535840854295551</v>
+        <v>-0.5641023676185049</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.1542422907809212</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.393182311342974</v>
+        <v>-1.464173721751877</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.385039910428485</v>
+        <v>-1.469722926164023</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.5179458309054834</v>
+        <v>-0.5501534101655381</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.1752507257094019</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.408591958540507</v>
+        <v>-1.501794352770085</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.394348659511857</v>
+        <v>-1.475801001000925</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5385245568973687</v>
+        <v>-0.5771383939811171</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.2034883945452727</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.445145404594473</v>
+        <v>-1.547826541972523</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.42680808183132</v>
+        <v>-1.510754456618089</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5450032196006422</v>
+        <v>-0.5837713105582782</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.2383519581923768</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.427378663762792</v>
+        <v>-1.540441244255381</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.424561169535663</v>
+        <v>-1.501684958441154</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.562773895480127</v>
+        <v>-0.6041705983703352</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.2783609295673089</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.344992141925232</v>
+        <v>-1.457510898811411</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.474631504793799</v>
+        <v>-1.563617888806973</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.5429192182840401</v>
+        <v>-0.5863338136877557</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.3220796523893425</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.302528254070782</v>
+        <v>-1.411640046568906</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.486695574349008</v>
+        <v>-1.574055996609878</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.5203430620272244</v>
+        <v>-0.5613069096590748</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.3680639656246927</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.133334577693489</v>
+        <v>-1.239445502736853</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.444614960150595</v>
+        <v>-1.522019711469238</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4806494478262637</v>
+        <v>-0.5225718731029861</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.4150805010096811</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.015884418900274</v>
+        <v>-1.120282024130103</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.43428703368618</v>
+        <v>-1.500926281224688</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4748003927715103</v>
+        <v>-0.5233903630460626</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.4615556227450032</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.8409439987111124</v>
+        <v>-0.9428538667197254</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.407017152409646</v>
+        <v>-1.468035577665988</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.4611142965118008</v>
+        <v>-0.5110217207908817</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.5066374598183668</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.6937637667547703</v>
+        <v>-0.7978945757435386</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.387854256617371</v>
+        <v>-1.437095083798581</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.4317934683202116</v>
+        <v>-0.4802386288356042</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.5497814855326442</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.5045713904317916</v>
+        <v>-0.5961934694635832</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.388174569508555</v>
+        <v>-1.431829202828269</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.3934912870224807</v>
+        <v>-0.4354089902418393</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.5897985187126076</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.3016992139255885</v>
+        <v>-0.3913175666159644</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.321703742016027</v>
+        <v>-1.348092172584633</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.313616112692956</v>
+        <v>-0.3521244904955773</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.6261294289141125</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.1211544986550357</v>
+        <v>-0.2042422460111351</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.311063372756035</v>
+        <v>-1.32774561441314</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2927587853166005</v>
+        <v>-0.3306076491073969</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.6579785845324838</v>
       </c>
       <c r="E85" t="n">
-        <v>0.06670783151044403</v>
+        <v>-0.01269985914005437</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.200029702910802</v>
+        <v>-1.207526755985557</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2556560065893007</v>
+        <v>-0.3002054697794741</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.6841915430849457</v>
       </c>
       <c r="E86" t="n">
-        <v>0.3137926311148621</v>
+        <v>0.2472053262073578</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.108581552991914</v>
+        <v>-1.106423572776611</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1893882275634205</v>
+        <v>-0.233498539418751</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.7036556149699337</v>
       </c>
       <c r="E87" t="n">
-        <v>0.5340592929305591</v>
+        <v>0.4782178165641746</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.9939937479707848</v>
+        <v>-0.9807475900554788</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1323111461868149</v>
+        <v>-0.1725100205257132</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.7149708582557938</v>
       </c>
       <c r="E88" t="n">
-        <v>0.7070030698643508</v>
+        <v>0.6515330620105932</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.8490667243865846</v>
+        <v>-0.8324025839493742</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1064169576222973</v>
+        <v>-0.1476483885047688</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.7164266297905461</v>
       </c>
       <c r="E89" t="n">
-        <v>0.8764005817178522</v>
+        <v>0.8318810248909835</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.730693403378727</v>
+        <v>-0.7140009305973333</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.06000542981162525</v>
+        <v>-0.09407507369217863</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.7058070194425685</v>
       </c>
       <c r="E90" t="n">
-        <v>1.007960247914406</v>
+        <v>0.9674638839615821</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.5663658071149352</v>
+        <v>-0.5378760610193928</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.04141783800818542</v>
+        <v>-0.07576608327320904</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.6814467911469193</v>
       </c>
       <c r="E91" t="n">
-        <v>1.121532023592736</v>
+        <v>1.085828547864273</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.372339618070442</v>
+        <v>-0.3397023315902722</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.06113085348335524</v>
+        <v>-0.09453940933296233</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.6427667584890588</v>
       </c>
       <c r="E92" t="n">
-        <v>1.178199859997803</v>
+        <v>1.1458852474375</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.2297995944836943</v>
+        <v>-0.2016860389581427</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.02540061942982962</v>
+        <v>-0.05636157554581415</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.5906856551531057</v>
       </c>
       <c r="E93" t="n">
-        <v>1.218376698069003</v>
+        <v>1.18207981713181</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.1281053670946995</v>
+        <v>-0.1015595346139634</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.02689751161418658</v>
+        <v>-0.05541086799654853</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.5287823435255185</v>
       </c>
       <c r="E94" t="n">
-        <v>1.191226442245688</v>
+        <v>1.162527351607012</v>
       </c>
       <c r="F94" t="n">
-        <v>0.01387587970398644</v>
+        <v>0.04656353479603782</v>
       </c>
       <c r="G94" t="n">
-        <v>0.00126956056148923</v>
+        <v>-0.02116808201265208</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.4616429615819788</v>
       </c>
       <c r="E95" t="n">
-        <v>1.190716460050387</v>
+        <v>1.172569593600911</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09116179257897151</v>
+        <v>0.1246490493846436</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.03509185515967796</v>
+        <v>-0.05540142388182073</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.3941364141476801</v>
       </c>
       <c r="E96" t="n">
-        <v>1.110252602569495</v>
+        <v>1.093294120556602</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1655546583090059</v>
+        <v>0.2016201584353686</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.07057339419203806</v>
+        <v>-0.08608692665157765</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.3314458056909156</v>
       </c>
       <c r="E97" t="n">
-        <v>1.054069564053788</v>
+        <v>1.041765456582581</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2126146819976539</v>
+        <v>0.2481859401199281</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.03957308759802101</v>
+        <v>-0.05010957159600782</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.2753399030347885</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9437308236506103</v>
+        <v>0.9273673208655684</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1966462580120584</v>
+        <v>0.2299147261598697</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.09760245054301347</v>
+        <v>-0.1086772490804851</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.2271592674848825</v>
       </c>
       <c r="E99" t="n">
-        <v>0.8988161880242952</v>
+        <v>0.8919093921200278</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1899456586126814</v>
+        <v>0.2142595319794131</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.08751771003283997</v>
+        <v>-0.0958316790315502</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.1803547900191535</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8447360390546462</v>
+        <v>0.8380480318082396</v>
       </c>
       <c r="F100" t="n">
-        <v>0.179646851502011</v>
+        <v>0.2047083839513605</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.08977485345278516</v>
+        <v>-0.09797391905564043</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.1359570473650393</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7819736006119026</v>
+        <v>0.7814588963592373</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1656695617048609</v>
+        <v>0.1856296981820749</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.07920216701500843</v>
+        <v>-0.08491585642532994</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.0843192342764767</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7649789161592191</v>
+        <v>0.7691768251557279</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1459596942679336</v>
+        <v>0.1589296118274513</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.06679102624355251</v>
+        <v>-0.06913631473429054</v>
       </c>
     </row>
   </sheetData>
